--- a/pearson_tables/t2m_netherlands-1-9.xlsx
+++ b/pearson_tables/t2m_netherlands-1-9.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5543461580168261</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5134839812336353</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6899856513272781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7635324635635066</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6931228908597227</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.666876330925831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7701767726731708</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.651177719180423</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4495537502405845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.611603921676262</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7775315293441439</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6680879173260879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7737935033570646</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6457349947994979</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7382613853624187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6245862182367797</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6632520734365248</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6324698956415629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6747432722518862</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7263599847162684</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.702181592617881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8128684142593859</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6320862919766217</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7729348916931175</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
